--- a/models/nmf_tf15.xlsx
+++ b/models/nmf_tf15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,72 +441,147 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Topic 0 weights</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Topic 1 words</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Topic 1 weights</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Topic 2 words</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Topic 2 weights</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Topic 3 words</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Topic 3 weights</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Topic 4 words</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Topic 4 weights</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Topic 5 words</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Topic 5 weights</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Topic 6 words</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Topic 6 weights</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Topic 7 words</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Topic 7 weights</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Topic 8 words</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Topic 8 weights</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Topic 9 words</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Topic 9 weights</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Topic 10 words</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Topic 10 weights</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Topic 11 words</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Topic 11 weights</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Topic 12 words</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Topic 12 weights</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Topic 13 words</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Topic 13 weights</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Topic 14 words</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Topic 14 weights</t>
         </is>
       </c>
     </row>
@@ -521,72 +596,147 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>jesus</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>fine</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>heart</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>god</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>5.7</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>teacher</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>life</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>5.7</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>character</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>exercise</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>work</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>page</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>way</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>series</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
         <is>
           <t>christ</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -601,72 +751,147 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>memory</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>violence</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>5.9</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>universe</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>practice</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>japanese</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>novel</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>chapter</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>art</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>color</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>old</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
         <is>
           <t>thing</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>cook</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
         <is>
           <t>god</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -681,72 +906,147 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>word</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>social</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>fantasy</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>science</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>education</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>author</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t>volume</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>giant</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>child</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>easy</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
         <is>
           <t>death</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -761,72 +1061,147 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>god</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>political</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>way</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>life</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>science</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>war</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>reader</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>strength</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
         <is>
           <t>thing</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>cover</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>young</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>recipe</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>thing</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
         <is>
           <t>sin</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>1.3</t>
         </is>
       </c>
     </row>
@@ -841,72 +1216,147 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>man</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>world</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>plot</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>law</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>school</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>social</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>plot</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>recommend</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t>collection</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>paper</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>daughter</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>lot</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>volume</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
         <is>
           <t>faith</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>1.2</t>
         </is>
       </c>
     </row>
@@ -921,72 +1371,147 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>heal</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>government</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>help</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>evidence</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>research</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>live</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>author</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>example</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
         <is>
           <t>print</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
         <is>
           <t>diet</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>favorite</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
         <is>
           <t>christian</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>1.1</t>
         </is>
       </c>
     </row>
@@ -1001,72 +1526,147 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>john</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>religious</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>world</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>man</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>job</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
         <is>
           <t>early</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
         <is>
           <t>picture</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>giant</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
         <is>
           <t>cook</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>child</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
         <is>
           <t>question</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>1.1</t>
         </is>
       </c>
     </row>
@@ -1081,72 +1681,147 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>fresh</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>religion</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>previous</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>scientific</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>history</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>self</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>world</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>understand</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>piano</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>art</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>son</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>use</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>mystery</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
         <is>
           <t>die</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>0.9</t>
         </is>
       </c>
     </row>
@@ -1161,72 +1836,147 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>imagination</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>world</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>new</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>new</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>way</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>specific</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
         <is>
           <t>artist</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
         <is>
           <t>look</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>new</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>food</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>little</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
         <is>
           <t>mean</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -1241,72 +1991,147 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>therapy</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>anti</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>sin</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>student</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>society</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>scene</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
         <is>
           <t>section</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
         <is>
           <t>money</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
         <is>
           <t>text</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>family</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
         <is>
           <t>help</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>issue</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
         <is>
           <t>sense</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>0.6</t>
         </is>
       </c>
     </row>
